--- a/Structure/7 - Oil Gas/RegionalOilGasEmployment.xlsx
+++ b/Structure/7 - Oil Gas/RegionalOilGasEmployment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\7 - Oil Gas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\7 - Oil Gas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B760109-8B17-41E3-B5F2-AEED16509BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FCB026-5330-4034-ADFF-1DF958502389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1740" windowWidth="28780" windowHeight="15370" xr2:uid="{5AF8061D-2AF9-4DF0-ADB6-7A142C1A93A4}"/>
+    <workbookView xWindow="-39090" yWindow="4200" windowWidth="21600" windowHeight="11385" xr2:uid="{5AF8061D-2AF9-4DF0-ADB6-7A142C1A93A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -47,9 +50,6 @@
     <t>Greater London</t>
   </si>
   <si>
-    <t>South East</t>
-  </si>
-  <si>
     <t>East Midlands</t>
   </si>
   <si>
@@ -65,9 +65,6 @@
     <t>North West</t>
   </si>
   <si>
-    <t xml:space="preserve">South West </t>
-  </si>
-  <si>
     <t>Wales</t>
   </si>
   <si>
@@ -75,6 +72,12 @@
   </si>
   <si>
     <t>Yorkshire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South East </t>
+  </si>
+  <si>
+    <t>South West</t>
   </si>
 </sst>
 </file>
@@ -436,15 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06651F34-2239-4D69-884D-0DC3C9901C78}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D15" sqref="D15:K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,101 +455,137 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.41035856573705182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.13047808764940239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8.5159362549800791E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.320717131474104E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
       <c r="B6" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5.2788844621513946E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4.9800796812749001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4.7310756972111553E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
       <c r="B9" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4.6812749003984064E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4.4322709163346616E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2.7390438247011952E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2.2410358565737053E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
       <c r="B13" s="1">
-        <v>0.02</v>
-      </c>
+        <v>8.9641434262948214E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J27" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{06651F34-2239-4D69-884D-0DC3C9901C78}">
@@ -554,8 +593,8 @@
       <sortCondition descending="1" ref="B1"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B13">
-    <sortCondition ref="A1:A13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E16:J27">
+    <sortCondition descending="1" ref="J16:J27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
